--- a/examples/Config/Excel/Server/ProcessConfig.xlsx
+++ b/examples/Config/Excel/Server/ProcessConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/New/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BAB2D-F7E8-A642-A42E-F34244525867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF1032D-01B5-3A4C-8954-FF528B5F1C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -534,10 +534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -655,22 +655,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/Config/Excel/Server/ProcessConfig.xlsx
+++ b/examples/Config/Excel/Server/ProcessConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF1032D-01B5-3A4C-8954-FF528B5F1C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B446CA-C4A4-B844-867C-50DF7F27A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessConfig" sheetId="9" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>uint</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     </r>
   </si>
   <si>
-    <t>Release下运行</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>MachineId</t>
-  </si>
-  <si>
-    <t>ReleaseMode</t>
   </si>
   <si>
     <t>#Description</t>
@@ -105,6 +96,18 @@
   </si>
   <si>
     <t>进程Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartupGroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +145,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -216,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +262,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +551,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -563,8 +577,8 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
+      <c r="E1" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="3">
         <v>0</v>
@@ -572,7 +586,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -581,7 +595,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -598,41 +612,41 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="16">
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="16">
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -652,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/ProcessConfig.xlsx
+++ b/examples/Config/Excel/Server/ProcessConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B446CA-C4A4-B844-867C-50DF7F27A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06887E51-BC49-6943-806D-D0902D19DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/ProcessConfig.xlsx
+++ b/examples/Config/Excel/Server/ProcessConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06887E51-BC49-6943-806D-D0902D19DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A5625-1B5F-2442-81E1-AD2B40D056C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
